--- a/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-58,26%</t>
+          <t>-68,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>-35,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-51,27%</t>
+          <t>-76,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-24,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,37 +694,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 5,51</t>
+          <t>-10,14; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 11,24</t>
+          <t>-4,85; 2,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,1</t>
+          <t>-1,99; 1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,29</t>
+          <t>-3,84; -0,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 263,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 493,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 263,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-34,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>-45,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,92</t>
+          <t>-7,23; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,75</t>
+          <t>-7,07; -0,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,27</t>
+          <t>-2,06; 1,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,06</t>
+          <t>-1,4; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 50,09</t>
+          <t>-66,4; 28,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 63,58</t>
+          <t>-72,32; 3,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 414,37</t>
+          <t>-73,2; 219,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 411,46</t>
+          <t>-51,74; 214,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 166,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,84%</t>
+          <t>-42,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,22%</t>
+          <t>-25,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,48%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-30,78%</t>
+          <t>-44,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-43,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,69</t>
+          <t>-11,74; -0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 3,82</t>
+          <t>-6,81; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,39</t>
+          <t>-1,84; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 1,97</t>
+          <t>-5,6; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 26,77</t>
+          <t>-68,94; -3,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,66; 44,55</t>
+          <t>-58,65; 34,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 341,59</t>
+          <t>-70,02; 366,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 58,3</t>
+          <t>-74,82; 11,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-80,25; 50,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-43,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-48,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>118,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,64</t>
+          <t>-4,64; -0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,34</t>
+          <t>-9,02; -0,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,54</t>
+          <t>-0,35; 3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 17,11</t>
+          <t>-64,91; -13,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 37,49</t>
+          <t>-73,91; -8,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 222,32</t>
+          <t>-35,53; 588,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 84,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-46,91; 49,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-41,67%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-42,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,72%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-31,38%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; -1,36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; -1,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 1,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 0,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-57,74; -19,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-60,08; -19,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-34,29; 133,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-58,33; 17,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-68,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-35,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-35,83%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-76,93%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-4.331992076859514</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.189314081677935</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8070354486388449</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.705357831581788</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.433936000777463</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7818889265241226</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4809455951216216</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.541464378654174</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 1,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 2,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 1,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; -0,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.17494286763555</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.653545063120471</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.139972618485896</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.693927159746793</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.5292103058828</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.87748273459365</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.331491230775482</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.19147329564408</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-34,48%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23,33%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 1,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; -0,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 1,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 2,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-66,4; 28,57</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-72,32; 3,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-73,2; 219,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-51,74; 214,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.359991277318561</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.9850992177337301</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9954582362671944</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.312074914040346</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.03076664537844635</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.09329629719254968</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3551676896605891</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9062585929088149</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,66</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-42,81%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-25,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,05%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-44,81%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.973136547779</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.755997096275281</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.563194504623416</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7528120798315538</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.4232873534368659</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5252702124582517</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6229629028126261</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2585975688494438</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; -0,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 2,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 2,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 0,33</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-68,94; -3,01</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-58,65; 34,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-70,02; 366,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-74,82; 11,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.78571247663095</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.175937471340941</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.382325660750698</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.587046217790188</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.8892647272520618</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.781963399881026</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.222257582953578</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.171636561212888</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +841,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-43,73%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-48,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>118,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.995076421358092</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3932874311143031</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.393442202417043</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.125434781160411</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.3557082748546017</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.03373370095622408</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6880251339784568</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3165064814522411</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; -0,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; -0,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 3,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-64,91; -13,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-73,91; -8,16</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,53; 588,81</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.63291279485868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.858381453956838</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.612944298204938</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.561393285716662</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.6563776756517431</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4666966300391283</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6484059169923061</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6925560793466927</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.9016895086950499</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.884315563650516</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.234818963848102</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.9145797757426</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.1014046272733883</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.8176647987685544</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>4.721140708324596</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4714667232272028</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-41,67%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-42,36%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22,72%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-31,38%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; -1,36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; -1,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 1,37</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 0,31</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-57,74; -19,24</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-60,08; -19,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-34,29; 133,55</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-58,33; 17,73</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.638632571878041</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.040243941054946</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.136724897746598</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1758592192122092</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>-0.1960639523286121</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.003882814748927483</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4887284664644382</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04351111896864034</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.458499243215357</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.05238328699126</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.8405137896290092</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.771078171637841</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.4648927717850471</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3527536410851477</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3246117210983577</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3715552126910544</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.024560643751193</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.370990902309919</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.347259343612706</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.336034442914144</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.191760371108499</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5044707252804478</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.233562394341642</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7419552055679649</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
